--- a/Python/Projeto Final/ProjetoFinal/database/inventario_produtos.xlsx
+++ b/Python/Projeto Final/ProjetoFinal/database/inventario_produtos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\Tokio_School\Python\Projeto Final\ProjetoFinal\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pao_de_Queijo\Documents\Tokio_School\Python\Projeto Final\ProjetoFinal\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310017AC-1226-4854-9659-CA307038436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D5B865-BA8F-4796-9B96-B06D04C1C524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="0" windowWidth="20460" windowHeight="15480" activeTab="3" xr2:uid="{BC5AD81B-FEB8-4283-8A1D-462C7EA8F32C}"/>
+    <workbookView xWindow="705" yWindow="2415" windowWidth="12750" windowHeight="12825" activeTab="3" xr2:uid="{BC5AD81B-FEB8-4283-8A1D-462C7EA8F32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>nome_produto</t>
   </si>
@@ -64,75 +64,48 @@
     <t>prateleira</t>
   </si>
   <si>
-    <t>descricao</t>
-  </si>
-  <si>
     <t>Asus GeForce® RTX 3080 ROG Strix OC LHR 12GD6X</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>De cima abaixo, a ROG Strix GeForce RTX™ 3080 foi radicalmente melhorada para acomodar os novos e impressionantes chips Ampere da NVIDIA e para fornecer a próxima onda de inovação de performance gaming ao mercado. Um novo design e mais metal envolvem um conjunto de ventoinhas Axial-tech. A disposição uniforme das ventoinhas da última geração foi usurpada por um novo esquema de rotação e funções especializadas para as ventoinhas centrais e auxiliares. Por baixo das pás, um dissipador maior e mais impressionante está pronto para as cargas térmicas mais exigentes. A PCB tem alguns novos truques na manga, e até a placa traseira recebeu algumas alterações de para melhorarem a performance. Tens estado à espera das últimas e maiores novidades no design do GPU - e são estas!</t>
-  </si>
-  <si>
     <t>Gigabyte GeForce® RTX 3070 Aorus Master LHR 8GB GD6</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>Utilizando os Núcleos Tensor de processamento de Inteligência Artificial dedicados da GeForce RTX, NVIDIA DLSS é uma tecnologia inovadora em termos de renderização de Inteligência artificial que aumenta a velocidade de fotogramas com uma qualidade de imagem rigorosa. Isto oferece-lhe a capacidade de desempenho necessária para poder aumentar as definições e resoluções de modo a obteres uma experiência visual incrível. A revolução da Inteligência Artificial chegou ao gaming.</t>
-  </si>
-  <si>
     <t>Computador King Mod</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>AMD Ryzen 5 3600 | 16GB DDR4 | SSD 512GB | GTX 1660 Ti</t>
-  </si>
-  <si>
     <t>Asus VivoBook K513EP</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>Portátil Asus VivoBook K513EP com um processador Intel® Core™ i5-1135G7, Ecrã de 15.6" com uma resolução FHD (1920 x 1080), Placa Gráfica NVIDIA® GeForce® MX330 com 2GB de memória VRAM GDDR5, 8GB de memória RAM on board. Usando a tecnologia ASUS Intelligent Performance no modo Performance, um portátil ASUS com um processador Intel® da 11ª geração pode desfrutar de um aumento de performance de até 40% comparativamente a uma performance normal. Mesmo no modo Equilibrado padrão, o desempenho pode ser até 30% superior!</t>
-  </si>
-  <si>
     <t>HP Pavillon x360</t>
   </si>
   <si>
-    <t>Portátil HP Pavilion com um processador Intel® Pentium® Gold 7505, Ecrã de 14" com uma resolução FHD (1920 x 1080), Placa gráfica integrada Intel® UHD, 4GB de memória RAM DDR4 3200MHz</t>
-  </si>
-  <si>
     <t>SSD Kingston NV1</t>
   </si>
   <si>
     <t>S1</t>
   </si>
   <si>
-    <t>Disco SSD Kingston NV1 M.2 NVMe 2280, Interface NVMe™ PCIe Ger 3.0 x 4, Velocidade de leitura até 2100 MB/s e escrita até 1700 MB/s, 500GB de capacidade</t>
-  </si>
-  <si>
     <t>Monitor Dell 27" S2721HGF Curvo FHD 144hz FreeSync Premium 1ms</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
-    <t>Ecrã de 27" com uma resolução FHD (1920 x 1080), Taxa de atualização de 144Hz, Tempo de resposta de 4ms (gray to gray) em Extreme mode</t>
-  </si>
-  <si>
     <t>LG UltraWide 34" 34WL500-B LED FHD IPS 75Hz FreeSync HDR10</t>
   </si>
   <si>
-    <t>Ecrã de 34" com uma resolução Ultrawide FHD (2560x1080), Painel IPS, Tempo de resposta de 5ms e uma taxa de atualização de 75Hz</t>
-  </si>
-  <si>
     <t>Numero_serie</t>
   </si>
   <si>
@@ -191,9 +164,6 @@
   </si>
   <si>
     <t>P1</t>
-  </si>
-  <si>
-    <t>A configuração de 65W significa o seu ideal também para sistemas de factor de forma pequenos, mantendo-se fresco e silencioso sem ter de investir em soluções de refrigeração dispendiosas. Estamos a fixar o preço desta parte para subcotar significativamente o 12700K, sendo simultaneamente uma oferta muito melhor do que o 11700K.</t>
   </si>
 </sst>
 </file>
@@ -255,13 +225,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,25 +560,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -628,16 +601,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -645,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>123456789</v>
@@ -672,25 +645,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -700,286 +673,357 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99862A47-A4D3-4F9D-AA39-FB22F9C84B3B}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3">
+        <v>690</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>945.6</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1599.9</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>690</v>
-      </c>
-      <c r="D2">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>809</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>945.6</v>
-      </c>
-      <c r="F2">
-        <v>1599.9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E3" s="3">
+        <v>803.3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1399.9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>546</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>600.9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>399</v>
+      </c>
+      <c r="F5" s="3">
+        <v>599</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>239</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>260</v>
+      </c>
+      <c r="F6" s="3">
+        <v>350</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>378</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+      <c r="F8" s="3">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>329.9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <v>324</v>
+      </c>
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>809</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>803.3</v>
-      </c>
-      <c r="F3">
-        <v>1399.9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>546</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>600.9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>399</v>
-      </c>
-      <c r="F5">
-        <v>599</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>239</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>260</v>
-      </c>
-      <c r="F6">
-        <v>350</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>378</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>150</v>
-      </c>
-      <c r="F8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
-        <v>329.9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <v>324</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>250</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>324.89999999999998</v>
       </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/Projeto Final/ProjetoFinal/database/inventario_produtos.xlsx
+++ b/Python/Projeto Final/ProjetoFinal/database/inventario_produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pao_de_Queijo\Documents\Tokio_School\Python\Projeto Final\ProjetoFinal\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D5B865-BA8F-4796-9B96-B06D04C1C524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED58AF6-031A-442A-83A8-9A35302877B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="2415" windowWidth="12750" windowHeight="12825" activeTab="3" xr2:uid="{BC5AD81B-FEB8-4283-8A1D-462C7EA8F32C}"/>
+    <workbookView xWindow="16200" yWindow="405" windowWidth="12750" windowHeight="12825" activeTab="2" xr2:uid="{BC5AD81B-FEB8-4283-8A1D-462C7EA8F32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
-  <si>
-    <t>nome_produto</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>numero_serie</t>
   </si>
@@ -109,18 +106,6 @@
     <t>Numero_serie</t>
   </si>
   <si>
-    <t>disponibilidade</t>
-  </si>
-  <si>
-    <t>preco_fornecedor</t>
-  </si>
-  <si>
-    <t>quantidade_armazem</t>
-  </si>
-  <si>
-    <t>fonecedores</t>
-  </si>
-  <si>
     <t>fornecedor</t>
   </si>
   <si>
@@ -164,6 +149,21 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>email_fornecedor</t>
+  </si>
+  <si>
+    <t>nome_forn</t>
+  </si>
+  <si>
+    <t>desp_fornecedor</t>
+  </si>
+  <si>
+    <t>contacto</t>
+  </si>
+  <si>
+    <t>encomenda</t>
   </si>
 </sst>
 </file>
@@ -560,25 +560,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +601,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>123456789</v>
@@ -635,35 +635,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EC00F4-9F1F-4D98-AAC6-40E59FDB10FC}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99862A47-A4D3-4F9D-AA39-FB22F9C84B3B}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,28 +692,28 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -733,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>690</v>
@@ -748,9 +745,11 @@
         <v>1599.9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -766,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>809</v>
@@ -781,9 +780,11 @@
         <v>1399.9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -799,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>546</v>
@@ -814,9 +815,11 @@
         <v>600.9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -832,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>300</v>
@@ -847,9 +850,11 @@
         <v>599</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -865,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>239</v>
@@ -880,9 +885,11 @@
         <v>350</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -898,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>378</v>
@@ -913,9 +920,11 @@
         <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -931,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>34</v>
@@ -946,9 +955,11 @@
         <v>259.89999999999998</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -964,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>43</v>
@@ -979,9 +990,11 @@
         <v>329.9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -997,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3">
         <v>324</v>
@@ -1012,9 +1025,11 @@
         <v>324.89999999999998</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
